--- a/UpgradeNAVtoBC.xlsx
+++ b/UpgradeNAVtoBC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="101">
   <si>
     <t>GL Account.al</t>
   </si>
@@ -311,6 +311,12 @@
   </si>
   <si>
     <t>Assignee</t>
+  </si>
+  <si>
+    <t>RSF</t>
+  </si>
+  <si>
+    <t>SID</t>
   </si>
 </sst>
 </file>
@@ -669,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26:C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -697,7 +703,9 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
@@ -706,7 +714,9 @@
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
@@ -715,7 +725,9 @@
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
@@ -724,7 +736,9 @@
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
@@ -733,7 +747,9 @@
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
@@ -742,7 +758,9 @@
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
@@ -751,7 +769,9 @@
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
@@ -760,7 +780,9 @@
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
@@ -769,7 +791,9 @@
       <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
@@ -778,7 +802,9 @@
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
@@ -787,7 +813,9 @@
       <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
@@ -796,7 +824,9 @@
       <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
@@ -805,7 +835,9 @@
       <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
@@ -814,7 +846,9 @@
       <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
@@ -823,7 +857,9 @@
       <c r="B16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
@@ -832,7 +868,9 @@
       <c r="B17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
@@ -841,7 +879,9 @@
       <c r="B18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
@@ -850,7 +890,9 @@
       <c r="B19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
@@ -859,7 +901,9 @@
       <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
@@ -868,7 +912,9 @@
       <c r="B21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
@@ -877,7 +923,9 @@
       <c r="B22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
@@ -886,7 +934,9 @@
       <c r="B23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
@@ -895,7 +945,9 @@
       <c r="B24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
@@ -904,7 +956,9 @@
       <c r="B25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
@@ -913,7 +967,9 @@
       <c r="B26" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
@@ -922,7 +978,9 @@
       <c r="B27" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="2"/>
+      <c r="C27" s="2" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
@@ -931,7 +989,9 @@
       <c r="B28" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
@@ -940,7 +1000,9 @@
       <c r="B29" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="2"/>
+      <c r="C29" s="2" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
@@ -949,7 +1011,9 @@
       <c r="B30" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="2"/>
+      <c r="C30" s="2" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
@@ -958,7 +1022,9 @@
       <c r="B31" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="2"/>
+      <c r="C31" s="2" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
@@ -967,7 +1033,9 @@
       <c r="B32" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="2"/>
+      <c r="C32" s="2" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
@@ -976,7 +1044,9 @@
       <c r="B33" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="2"/>
+      <c r="C33" s="2" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
@@ -985,7 +1055,9 @@
       <c r="B34" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="2"/>
+      <c r="C34" s="2" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
@@ -994,7 +1066,9 @@
       <c r="B35" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="2"/>
+      <c r="C35" s="2" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
@@ -1003,7 +1077,9 @@
       <c r="B36" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="2"/>
+      <c r="C36" s="2" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2" t="s">
@@ -1012,7 +1088,9 @@
       <c r="B37" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="2"/>
+      <c r="C37" s="2" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2" t="s">
@@ -1021,7 +1099,9 @@
       <c r="B38" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="2"/>
+      <c r="C38" s="2" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2" t="s">
@@ -1030,7 +1110,9 @@
       <c r="B39" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="2"/>
+      <c r="C39" s="2" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2" t="s">
@@ -1039,7 +1121,9 @@
       <c r="B40" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="2"/>
+      <c r="C40" s="2" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2" t="s">
@@ -1048,7 +1132,9 @@
       <c r="B41" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="2"/>
+      <c r="C41" s="2" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2" t="s">
@@ -1057,7 +1143,9 @@
       <c r="B42" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="2"/>
+      <c r="C42" s="2" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2" t="s">
@@ -1066,7 +1154,9 @@
       <c r="B43" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="2"/>
+      <c r="C43" s="2" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2" t="s">
@@ -1075,7 +1165,9 @@
       <c r="B44" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="2"/>
+      <c r="C44" s="2" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2" t="s">
@@ -1084,7 +1176,9 @@
       <c r="B45" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="2"/>
+      <c r="C45" s="2" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2" t="s">
@@ -1093,7 +1187,9 @@
       <c r="B46" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="2"/>
+      <c r="C46" s="2" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2" t="s">
@@ -1102,7 +1198,9 @@
       <c r="B47" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C47" s="2"/>
+      <c r="C47" s="2" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2" t="s">
@@ -1111,7 +1209,9 @@
       <c r="B48" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C48" s="2"/>
+      <c r="C48" s="2" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2" t="s">
@@ -1120,7 +1220,9 @@
       <c r="B49" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C49" s="2"/>
+      <c r="C49" s="2" t="s">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/UpgradeNAVtoBC.xlsx
+++ b/UpgradeNAVtoBC.xlsx
@@ -675,7 +675,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
       <selection activeCell="C26" sqref="C26:C49"/>
     </sheetView>
   </sheetViews>
@@ -698,10 +698,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>99</v>
@@ -709,10 +709,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>99</v>
@@ -720,10 +720,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>99</v>
@@ -731,10 +731,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>99</v>
@@ -742,10 +742,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>99</v>
@@ -753,10 +753,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>99</v>
@@ -764,10 +764,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>99</v>
@@ -775,10 +775,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>99</v>
@@ -786,10 +786,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>99</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>99</v>
@@ -808,10 +808,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>99</v>
@@ -819,10 +819,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>99</v>
@@ -830,10 +830,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>99</v>
@@ -841,10 +841,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>99</v>
@@ -852,10 +852,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>99</v>
@@ -863,10 +863,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>99</v>
@@ -874,10 +874,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>99</v>
@@ -885,10 +885,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>99</v>
@@ -896,10 +896,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>99</v>
@@ -907,10 +907,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>99</v>
@@ -918,10 +918,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>99</v>
@@ -929,10 +929,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>99</v>
@@ -940,10 +940,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>99</v>
@@ -951,10 +951,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>99</v>
@@ -962,10 +962,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>100</v>
@@ -973,10 +973,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>100</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>100</v>
@@ -995,10 +995,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>100</v>
@@ -1006,10 +1006,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>100</v>
@@ -1017,10 +1017,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>100</v>
@@ -1028,10 +1028,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>100</v>
@@ -1039,10 +1039,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>100</v>
@@ -1050,10 +1050,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>100</v>
@@ -1061,10 +1061,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>100</v>
@@ -1072,10 +1072,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>100</v>
@@ -1083,10 +1083,10 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>100</v>
@@ -1094,10 +1094,10 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>100</v>
@@ -1105,10 +1105,10 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>100</v>
@@ -1116,10 +1116,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>100</v>
@@ -1127,10 +1127,10 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>100</v>
@@ -1138,10 +1138,10 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>100</v>
@@ -1149,10 +1149,10 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>100</v>
@@ -1160,10 +1160,10 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>100</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>100</v>
@@ -1182,10 +1182,10 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>100</v>
@@ -1193,10 +1193,10 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>100</v>
@@ -1204,10 +1204,10 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>100</v>
@@ -1215,16 +1215,19 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>100</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:C49">
+    <sortCondition ref="A2:A49" customList="0,1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/UpgradeNAVtoBC.xlsx
+++ b/UpgradeNAVtoBC.xlsx
@@ -4,17 +4,23 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="tableExt" sheetId="3" r:id="rId1"/>
+    <sheet name="pageExt" sheetId="4" r:id="rId2"/>
+    <sheet name="NewReports" sheetId="5" r:id="rId3"/>
+    <sheet name="NewTables" sheetId="6" r:id="rId4"/>
+    <sheet name="NewCodeunits" sheetId="7" r:id="rId5"/>
+    <sheet name="NewPages" sheetId="9" r:id="rId6"/>
+    <sheet name="Enums" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="493">
   <si>
     <t>GL Account.al</t>
   </si>
@@ -317,6 +323,1182 @@
   </si>
   <si>
     <t>SID</t>
+  </si>
+  <si>
+    <t>GL Entries Preview.al</t>
+  </si>
+  <si>
+    <t>Cust. Ledg. Entries Preview.al</t>
+  </si>
+  <si>
+    <t>Posted Sales Shipment.al</t>
+  </si>
+  <si>
+    <t>Mini Customer Card.al</t>
+  </si>
+  <si>
+    <t>Mini Customer List.al</t>
+  </si>
+  <si>
+    <t>Mini Sales Invoice.al</t>
+  </si>
+  <si>
+    <t>Mini Sales Invoice Subform.al</t>
+  </si>
+  <si>
+    <t>Mini Sales Invoice List.al</t>
+  </si>
+  <si>
+    <t>Mini Posted Sales Invoice.al</t>
+  </si>
+  <si>
+    <t>Mini Posted Sales Inv. Subform.al</t>
+  </si>
+  <si>
+    <t>Mini Posted Sales Invoices.al</t>
+  </si>
+  <si>
+    <t>Posted Sales Shpt. Subform.al</t>
+  </si>
+  <si>
+    <t>Mini Sales Credit Memos.al</t>
+  </si>
+  <si>
+    <t>Mini Sales Credit Memo.al</t>
+  </si>
+  <si>
+    <t>Posted Sales Invoice.al</t>
+  </si>
+  <si>
+    <t>Mini Sales Cr.Memo Subform.al</t>
+  </si>
+  <si>
+    <t>Mini Posted Sales Credit Memos.al</t>
+  </si>
+  <si>
+    <t>Mini Posted Sales Credit Memo.al</t>
+  </si>
+  <si>
+    <t>Mini Pst.Sales Cr.Memo Subform.al</t>
+  </si>
+  <si>
+    <t>Mini Sales Quote.al</t>
+  </si>
+  <si>
+    <t>Mini Sales Quote Subform.al</t>
+  </si>
+  <si>
+    <t>Mini Sales Quotes List.al</t>
+  </si>
+  <si>
+    <t>Posted Sales Invoice Subform.al</t>
+  </si>
+  <si>
+    <t>Mini Vendor Card.al</t>
+  </si>
+  <si>
+    <t>Mini Vendor List.al</t>
+  </si>
+  <si>
+    <t>Posted Sales Credit Memo.al</t>
+  </si>
+  <si>
+    <t>Posted Sales Cr. Memo Subform.al</t>
+  </si>
+  <si>
+    <t>TDS Adjustment Journal.al</t>
+  </si>
+  <si>
+    <t>Posted Purchase Invoice.al</t>
+  </si>
+  <si>
+    <t>Posted Purchase Credit Memo.al</t>
+  </si>
+  <si>
+    <t>Posted Sales Shipments.al</t>
+  </si>
+  <si>
+    <t>Posted Sales Invoices.al</t>
+  </si>
+  <si>
+    <t>Posted Sales Credit Memos.al</t>
+  </si>
+  <si>
+    <t>Chart of Accounts.al</t>
+  </si>
+  <si>
+    <t>LC Journal.al</t>
+  </si>
+  <si>
+    <t>GST Credit Adjustment.al</t>
+  </si>
+  <si>
+    <t>GST Setup.al</t>
+  </si>
+  <si>
+    <t>Detailed GST Entry Buffer.al</t>
+  </si>
+  <si>
+    <t>Detailed GST Ledger Entry Prev.al</t>
+  </si>
+  <si>
+    <t>Detailed GST Ledger Entry.al</t>
+  </si>
+  <si>
+    <t>Bank Acc. Ledg. Entr. Preview.al</t>
+  </si>
+  <si>
+    <t>Correct Deductor Record.al</t>
+  </si>
+  <si>
+    <t>Bank Receipt Voucher.al</t>
+  </si>
+  <si>
+    <t>Contra Voucher.al</t>
+  </si>
+  <si>
+    <t>Journal Voucher.al</t>
+  </si>
+  <si>
+    <t>Cash Payment Voucher.al</t>
+  </si>
+  <si>
+    <t>Bank Payment Voucher.al</t>
+  </si>
+  <si>
+    <t>Cash Receipt Voucher.al</t>
+  </si>
+  <si>
+    <t>GST Component Dist. List.al</t>
+  </si>
+  <si>
+    <t>GST Component Dist. Card.al</t>
+  </si>
+  <si>
+    <t>GST Distribution List.al</t>
+  </si>
+  <si>
+    <t>Dist. Component Amount.al</t>
+  </si>
+  <si>
+    <t>Location Distribution List.al</t>
+  </si>
+  <si>
+    <t>GST Distribution Reversal List.al</t>
+  </si>
+  <si>
+    <t>GL Account Card.al</t>
+  </si>
+  <si>
+    <t>Data Classification Worksheet.al</t>
+  </si>
+  <si>
+    <t>Reverse Entries.al</t>
+  </si>
+  <si>
+    <t>GL Account List.al</t>
+  </si>
+  <si>
+    <t>General Ledger Entries.al</t>
+  </si>
+  <si>
+    <t>Customer Card.al</t>
+  </si>
+  <si>
+    <t>Customer List.al</t>
+  </si>
+  <si>
+    <t>Apply Customer Entries.al</t>
+  </si>
+  <si>
+    <t>Customer Ledger Entries.al</t>
+  </si>
+  <si>
+    <t>Sales Journal.al</t>
+  </si>
+  <si>
+    <t>Purchase Journal.al</t>
+  </si>
+  <si>
+    <t>Cash Receipt Journal.al</t>
+  </si>
+  <si>
+    <t>Payment Journal.al</t>
+  </si>
+  <si>
+    <t>Vendor Card.al</t>
+  </si>
+  <si>
+    <t>Vendor List.al</t>
+  </si>
+  <si>
+    <t>Recurring General Journal.al</t>
+  </si>
+  <si>
+    <t>Vendor Ledger Entries.al</t>
+  </si>
+  <si>
+    <t>Check Credit Limit.al</t>
+  </si>
+  <si>
+    <t>Navigate.al</t>
+  </si>
+  <si>
+    <t>Companies.al</t>
+  </si>
+  <si>
+    <t>Assembly BOM.al</t>
+  </si>
+  <si>
+    <t>Bank Account Card.al</t>
+  </si>
+  <si>
+    <t>Bank Account Ledger Entries.al</t>
+  </si>
+  <si>
+    <t>Bank Acc. Reconciliation Lines.al</t>
+  </si>
+  <si>
+    <t>Apply Bank Acc. Ledger Entries.al</t>
+  </si>
+  <si>
+    <t>General Journal.al</t>
+  </si>
+  <si>
+    <t>Sales Quote.al</t>
+  </si>
+  <si>
+    <t>GL Balance.al</t>
+  </si>
+  <si>
+    <t>Sales Order.al</t>
+  </si>
+  <si>
+    <t>GL BalanceBudget.al</t>
+  </si>
+  <si>
+    <t>Sales Invoice.al</t>
+  </si>
+  <si>
+    <t>Sales Credit Memo.al</t>
+  </si>
+  <si>
+    <t>Sales List.al</t>
+  </si>
+  <si>
+    <t>No. Series.al</t>
+  </si>
+  <si>
+    <t>No. Series Lines.al</t>
+  </si>
+  <si>
+    <t>Sales Order Subform.al</t>
+  </si>
+  <si>
+    <t>Purchases &amp; Payables Setup.al</t>
+  </si>
+  <si>
+    <t>Sales Invoice Subform.al</t>
+  </si>
+  <si>
+    <t>Sales Orders.al</t>
+  </si>
+  <si>
+    <t>Purchase Order.al</t>
+  </si>
+  <si>
+    <t>Blanket Sales Order.al</t>
+  </si>
+  <si>
+    <t>Blanket Sales Order Subform.al</t>
+  </si>
+  <si>
+    <t>Purchase Invoice.al</t>
+  </si>
+  <si>
+    <t>Sales Order Archive.al</t>
+  </si>
+  <si>
+    <t>Sales Lines.al</t>
+  </si>
+  <si>
+    <t>Sales Order Archive Subform.al</t>
+  </si>
+  <si>
+    <t>Sales List Archive.al</t>
+  </si>
+  <si>
+    <t>Sales Quote Archive.al</t>
+  </si>
+  <si>
+    <t>Sales Quote Archive Subform.al</t>
+  </si>
+  <si>
+    <t>Purchase Credit Memo.al</t>
+  </si>
+  <si>
+    <t>Employee Card.al</t>
+  </si>
+  <si>
+    <t>Employee List.al</t>
+  </si>
+  <si>
+    <t>CRM Coupling Customer.al</t>
+  </si>
+  <si>
+    <t>Posted Sales Shipment Lines.al</t>
+  </si>
+  <si>
+    <t>Posted Sales Invoice Lines.al</t>
+  </si>
+  <si>
+    <t>Posted Sales Credit Memo Lines.al</t>
+  </si>
+  <si>
+    <t>Purchase Order Subform.al</t>
+  </si>
+  <si>
+    <t>Purch. Invoice Subform.al</t>
+  </si>
+  <si>
+    <t>Fixed Asset GL Journal.al</t>
+  </si>
+  <si>
+    <t>Chart of Accounts (GL).al</t>
+  </si>
+  <si>
+    <t>Location Card.al</t>
+  </si>
+  <si>
+    <t>Get Shipment Lines.al</t>
+  </si>
+  <si>
+    <t>No. Series List.al</t>
+  </si>
+  <si>
+    <t>Sales Shipment Lines.al</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get Post.Doc </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S.ShptLn Sbfrm.al</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S.InvLn Subform.al</t>
+  </si>
+  <si>
+    <t>Get Pst.Doc</t>
+  </si>
+  <si>
+    <t>RtrnRcptLn Subform.al</t>
+  </si>
+  <si>
+    <t>Get Post.Doc</t>
+  </si>
+  <si>
+    <t>S.Cr.MemoLn Sbfrm.al</t>
+  </si>
+  <si>
+    <t>Applied Customer Entries.al</t>
+  </si>
+  <si>
+    <t>IC General Journal.al</t>
+  </si>
+  <si>
+    <t>Chart of Accounts Overview.al</t>
+  </si>
+  <si>
+    <t>Sales Return Order Archive.al</t>
+  </si>
+  <si>
+    <t>Sales Return Order Arc Subform.al</t>
+  </si>
+  <si>
+    <t>Sales Return List Archive.al</t>
+  </si>
+  <si>
+    <t>Sales Return Order.al</t>
+  </si>
+  <si>
+    <t>Sales Return Order Subform.al</t>
+  </si>
+  <si>
+    <t>Sales Return Orders.al</t>
+  </si>
+  <si>
+    <t>Get Return Receipt Lines.al</t>
+  </si>
+  <si>
+    <t>Posted Return Receipt.al</t>
+  </si>
+  <si>
+    <t>Posted Return Receipt Subform.al</t>
+  </si>
+  <si>
+    <t>Posted Return Receipts.al</t>
+  </si>
+  <si>
+    <t>Posted Return Receipt Lines.al</t>
+  </si>
+  <si>
+    <t>Return Receipt Lines.al</t>
+  </si>
+  <si>
+    <t>Sales Comment Sheet.al</t>
+  </si>
+  <si>
+    <t>Config. Package Subform.al</t>
+  </si>
+  <si>
+    <t>Vendor Details FactBox.al</t>
+  </si>
+  <si>
+    <t>GL Entries Dim. Overv. Matrix.al</t>
+  </si>
+  <si>
+    <t>Sales Quotes.al</t>
+  </si>
+  <si>
+    <t>Sales Invoice List.al</t>
+  </si>
+  <si>
+    <t>Sales Credit Memos.al</t>
+  </si>
+  <si>
+    <t>Blanket Sales Orders.al</t>
+  </si>
+  <si>
+    <t>Sales Return Order List.al</t>
+  </si>
+  <si>
+    <t>Sales Order List.al</t>
+  </si>
+  <si>
+    <t>Sales Quote Archives.al</t>
+  </si>
+  <si>
+    <t>Sales Order Archives.al</t>
+  </si>
+  <si>
+    <t>Sales Quote Subform.al</t>
+  </si>
+  <si>
+    <t>Session List.al</t>
+  </si>
+  <si>
+    <t>Sales Cr. Memo Subform.al</t>
+  </si>
+  <si>
+    <t>Purch. Cr. Memo Subform.al</t>
+  </si>
+  <si>
+    <t>Users.al</t>
+  </si>
+  <si>
+    <t>Job GL Journal.al</t>
+  </si>
+  <si>
+    <t>Account Schedule Names.al</t>
+  </si>
+  <si>
+    <t>pageextension50006</t>
+  </si>
+  <si>
+    <t>pageextension50007</t>
+  </si>
+  <si>
+    <t>pageextension50008</t>
+  </si>
+  <si>
+    <t>pageextension50009</t>
+  </si>
+  <si>
+    <t>pageextension50010</t>
+  </si>
+  <si>
+    <t>pageextension50011</t>
+  </si>
+  <si>
+    <t>pageextension50012</t>
+  </si>
+  <si>
+    <t>pageextension50013</t>
+  </si>
+  <si>
+    <t>pageextension50014</t>
+  </si>
+  <si>
+    <t>pageextension50015</t>
+  </si>
+  <si>
+    <t>pageextension50016</t>
+  </si>
+  <si>
+    <t>pageextension50017</t>
+  </si>
+  <si>
+    <t>pageextension50018</t>
+  </si>
+  <si>
+    <t>pageextension50019</t>
+  </si>
+  <si>
+    <t>pageextension50020</t>
+  </si>
+  <si>
+    <t>pageextension50021</t>
+  </si>
+  <si>
+    <t>pageextension50022</t>
+  </si>
+  <si>
+    <t>pageextension50023</t>
+  </si>
+  <si>
+    <t>pageextension50024</t>
+  </si>
+  <si>
+    <t>pageextension50025</t>
+  </si>
+  <si>
+    <t>pageextension50026</t>
+  </si>
+  <si>
+    <t>pageextension50027</t>
+  </si>
+  <si>
+    <t>pageextension50028</t>
+  </si>
+  <si>
+    <t>pageextension50029</t>
+  </si>
+  <si>
+    <t>pageextension50030</t>
+  </si>
+  <si>
+    <t>pageextension50031</t>
+  </si>
+  <si>
+    <t>pageextension50032</t>
+  </si>
+  <si>
+    <t>pageextension50033</t>
+  </si>
+  <si>
+    <t>pageextension50034</t>
+  </si>
+  <si>
+    <t>pageextension50035</t>
+  </si>
+  <si>
+    <t>pageextension50036</t>
+  </si>
+  <si>
+    <t>pageextension50037</t>
+  </si>
+  <si>
+    <t>pageextension50038</t>
+  </si>
+  <si>
+    <t>pageextension50039</t>
+  </si>
+  <si>
+    <t>pageextension50040</t>
+  </si>
+  <si>
+    <t>pageextension50041</t>
+  </si>
+  <si>
+    <t>pageextension50042</t>
+  </si>
+  <si>
+    <t>pageextension50043</t>
+  </si>
+  <si>
+    <t>pageextension50044</t>
+  </si>
+  <si>
+    <t>pageextension50045</t>
+  </si>
+  <si>
+    <t>pageextension50046</t>
+  </si>
+  <si>
+    <t>pageextension50047</t>
+  </si>
+  <si>
+    <t>pageextension50048</t>
+  </si>
+  <si>
+    <t>pageextension50049</t>
+  </si>
+  <si>
+    <t>pageextension50050</t>
+  </si>
+  <si>
+    <t>pageextension50051</t>
+  </si>
+  <si>
+    <t>pageextension50052</t>
+  </si>
+  <si>
+    <t>pageextension50053</t>
+  </si>
+  <si>
+    <t>pageextension50054</t>
+  </si>
+  <si>
+    <t>pageextension50055</t>
+  </si>
+  <si>
+    <t>pageextension50056</t>
+  </si>
+  <si>
+    <t>pageextension50057</t>
+  </si>
+  <si>
+    <t>pageextension50058</t>
+  </si>
+  <si>
+    <t>pageextension50059</t>
+  </si>
+  <si>
+    <t>pageextension50060</t>
+  </si>
+  <si>
+    <t>pageextension50061</t>
+  </si>
+  <si>
+    <t>pageextension50062</t>
+  </si>
+  <si>
+    <t>pageextension50063</t>
+  </si>
+  <si>
+    <t>pageextension50064</t>
+  </si>
+  <si>
+    <t>pageextension50065</t>
+  </si>
+  <si>
+    <t>pageextension50066</t>
+  </si>
+  <si>
+    <t>pageextension50067</t>
+  </si>
+  <si>
+    <t>pageextension50068</t>
+  </si>
+  <si>
+    <t>pageextension50069</t>
+  </si>
+  <si>
+    <t>pageextension50070</t>
+  </si>
+  <si>
+    <t>pageextension50071</t>
+  </si>
+  <si>
+    <t>pageextension50072</t>
+  </si>
+  <si>
+    <t>pageextension50073</t>
+  </si>
+  <si>
+    <t>pageextension50074</t>
+  </si>
+  <si>
+    <t>pageextension50075</t>
+  </si>
+  <si>
+    <t>pageextension50076</t>
+  </si>
+  <si>
+    <t>pageextension50077</t>
+  </si>
+  <si>
+    <t>pageextension50078</t>
+  </si>
+  <si>
+    <t>pageextension50079</t>
+  </si>
+  <si>
+    <t>pageextension50080</t>
+  </si>
+  <si>
+    <t>pageextension50081</t>
+  </si>
+  <si>
+    <t>pageextension50082</t>
+  </si>
+  <si>
+    <t>pageextension50083</t>
+  </si>
+  <si>
+    <t>pageextension50084</t>
+  </si>
+  <si>
+    <t>pageextension50085</t>
+  </si>
+  <si>
+    <t>pageextension50086</t>
+  </si>
+  <si>
+    <t>pageextension50087</t>
+  </si>
+  <si>
+    <t>pageextension50088</t>
+  </si>
+  <si>
+    <t>pageextension50089</t>
+  </si>
+  <si>
+    <t>pageextension50090</t>
+  </si>
+  <si>
+    <t>pageextension50091</t>
+  </si>
+  <si>
+    <t>pageextension50092</t>
+  </si>
+  <si>
+    <t>pageextension50093</t>
+  </si>
+  <si>
+    <t>pageextension50094</t>
+  </si>
+  <si>
+    <t>pageextension50095</t>
+  </si>
+  <si>
+    <t>pageextension50096</t>
+  </si>
+  <si>
+    <t>pageextension50097</t>
+  </si>
+  <si>
+    <t>pageextension50098</t>
+  </si>
+  <si>
+    <t>pageextension50099</t>
+  </si>
+  <si>
+    <t>pageextension50100</t>
+  </si>
+  <si>
+    <t>pageextension50101</t>
+  </si>
+  <si>
+    <t>pageextension50102</t>
+  </si>
+  <si>
+    <t>pageextension50103</t>
+  </si>
+  <si>
+    <t>pageextension50104</t>
+  </si>
+  <si>
+    <t>pageextension50105</t>
+  </si>
+  <si>
+    <t>pageextension50106</t>
+  </si>
+  <si>
+    <t>pageextension50107</t>
+  </si>
+  <si>
+    <t>pageextension50108</t>
+  </si>
+  <si>
+    <t>pageextension50109</t>
+  </si>
+  <si>
+    <t>pageextension50110</t>
+  </si>
+  <si>
+    <t>pageextension50111</t>
+  </si>
+  <si>
+    <t>pageextension50112</t>
+  </si>
+  <si>
+    <t>pageextension50113</t>
+  </si>
+  <si>
+    <t>pageextension50114</t>
+  </si>
+  <si>
+    <t>pageextension50115</t>
+  </si>
+  <si>
+    <t>pageextension50116</t>
+  </si>
+  <si>
+    <t>pageextension50117</t>
+  </si>
+  <si>
+    <t>pageextension50118</t>
+  </si>
+  <si>
+    <t>pageextension50119</t>
+  </si>
+  <si>
+    <t>pageextension50120</t>
+  </si>
+  <si>
+    <t>pageextension50121</t>
+  </si>
+  <si>
+    <t>pageextension50122</t>
+  </si>
+  <si>
+    <t>pageextension50123</t>
+  </si>
+  <si>
+    <t>pageextension50124</t>
+  </si>
+  <si>
+    <t>pageextension50125</t>
+  </si>
+  <si>
+    <t>pageextension50126</t>
+  </si>
+  <si>
+    <t>pageextension50127</t>
+  </si>
+  <si>
+    <t>pageextension50128</t>
+  </si>
+  <si>
+    <t>pageextension50129</t>
+  </si>
+  <si>
+    <t>pageextension50130</t>
+  </si>
+  <si>
+    <t>pageextension50131</t>
+  </si>
+  <si>
+    <t>pageextension50132</t>
+  </si>
+  <si>
+    <t>pageextension50133</t>
+  </si>
+  <si>
+    <t>pageextension50134</t>
+  </si>
+  <si>
+    <t>pageextension50135</t>
+  </si>
+  <si>
+    <t>pageextension50136</t>
+  </si>
+  <si>
+    <t>pageextension50137</t>
+  </si>
+  <si>
+    <t>pageextension50138</t>
+  </si>
+  <si>
+    <t>pageextension50139</t>
+  </si>
+  <si>
+    <t>pageextension50140</t>
+  </si>
+  <si>
+    <t>pageextension50141</t>
+  </si>
+  <si>
+    <t>pageextension50142</t>
+  </si>
+  <si>
+    <t>pageextension50143</t>
+  </si>
+  <si>
+    <t>pageextension50144</t>
+  </si>
+  <si>
+    <t>pageextension50145</t>
+  </si>
+  <si>
+    <t>pageextension50146</t>
+  </si>
+  <si>
+    <t>pageextension50147</t>
+  </si>
+  <si>
+    <t>pageextension50148</t>
+  </si>
+  <si>
+    <t>pageextension50149</t>
+  </si>
+  <si>
+    <t>pageextension50150</t>
+  </si>
+  <si>
+    <t>pageextension50151</t>
+  </si>
+  <si>
+    <t>pageextension50152</t>
+  </si>
+  <si>
+    <t>pageextension50153</t>
+  </si>
+  <si>
+    <t>pageextension50154</t>
+  </si>
+  <si>
+    <t>pageextension50155</t>
+  </si>
+  <si>
+    <t>pageextension50156</t>
+  </si>
+  <si>
+    <t>pageextension50157</t>
+  </si>
+  <si>
+    <t>pageextension50158</t>
+  </si>
+  <si>
+    <t>pageextension50159</t>
+  </si>
+  <si>
+    <t>pageextension50160</t>
+  </si>
+  <si>
+    <t>pageextension50161</t>
+  </si>
+  <si>
+    <t>pageextension50162</t>
+  </si>
+  <si>
+    <t>pageextension50001</t>
+  </si>
+  <si>
+    <t>pageextension50002</t>
+  </si>
+  <si>
+    <t>pageextension50003</t>
+  </si>
+  <si>
+    <t>pageextension50004</t>
+  </si>
+  <si>
+    <t>pageextension50005</t>
+  </si>
+  <si>
+    <t>ReminderEmailLog.Table.al</t>
+  </si>
+  <si>
+    <t>ReminderList.Table.al</t>
+  </si>
+  <si>
+    <t>ReminderListBuffer.Table.al</t>
+  </si>
+  <si>
+    <t>ReminderType.Table.al</t>
+  </si>
+  <si>
+    <t>SegmentMaster.Table.al</t>
+  </si>
+  <si>
+    <t>TempBuffer.Table.al</t>
+  </si>
+  <si>
+    <t>Beneficiary.Table.al</t>
+  </si>
+  <si>
+    <t>CustomerGroup.Table.al</t>
+  </si>
+  <si>
+    <t>CustomerGroupCode.Table.al</t>
+  </si>
+  <si>
+    <t>EInvIntegrationSetup.Table.al</t>
+  </si>
+  <si>
+    <t>EInvoicingRequests.Table.al</t>
+  </si>
+  <si>
+    <t>EmployeeLOB.Table.al</t>
+  </si>
+  <si>
+    <t>GLUserSetup.Table.al</t>
+  </si>
+  <si>
+    <t>LOBMaster.Table.al</t>
+  </si>
+  <si>
+    <t>PortalUser.Table.al</t>
+  </si>
+  <si>
+    <t>PrimaryIncharge.Table.al</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>RemindersList.Page.al</t>
+  </si>
+  <si>
+    <t>ReminderTypeCard.Page.al</t>
+  </si>
+  <si>
+    <t>ReminderTypes.Page.al</t>
+  </si>
+  <si>
+    <t>SegmentMaster.Page.al</t>
+  </si>
+  <si>
+    <t>UserGLSetup.Page.al</t>
+  </si>
+  <si>
+    <t>BeneficiaryList.Page.al</t>
+  </si>
+  <si>
+    <t>CheckPrinting.Page.al</t>
+  </si>
+  <si>
+    <t>CustomerGroup.Page.al</t>
+  </si>
+  <si>
+    <t>CustomerGroupCode.Page.al</t>
+  </si>
+  <si>
+    <t>EInvoiceIntegrationSetup.Page.al</t>
+  </si>
+  <si>
+    <t>EInvoiceRequests.Page.al</t>
+  </si>
+  <si>
+    <t>EmployeeLOB.Page.al</t>
+  </si>
+  <si>
+    <t>LOBMaster.Page.al</t>
+  </si>
+  <si>
+    <t>MatrixReminderListByPeriod.Page.al</t>
+  </si>
+  <si>
+    <t>PortalUserCard.Page.al</t>
+  </si>
+  <si>
+    <t>PortalUsers.Page.al</t>
+  </si>
+  <si>
+    <t>PrimaryIncharge.Page.al</t>
+  </si>
+  <si>
+    <t>ReminderEmailLog.Page.al</t>
+  </si>
+  <si>
+    <t>ReminderListCard.Page.al</t>
+  </si>
+  <si>
+    <t>ReminderMatrix.Page.al</t>
+  </si>
+  <si>
+    <t>Page</t>
+  </si>
+  <si>
+    <t>EmailReminderMonthly.Codeunit.al</t>
+  </si>
+  <si>
+    <t>EmailReminderWeekely.Codeunit.al</t>
+  </si>
+  <si>
+    <t>GLFilterSingleInstance.Codeunit.al</t>
+  </si>
+  <si>
+    <t>PKFPortalWebServices.Codeunit.al</t>
+  </si>
+  <si>
+    <t>UpdateGLE.Codeunit.al</t>
+  </si>
+  <si>
+    <t>APIConsumerEInvoicing.Codeunit.al</t>
+  </si>
+  <si>
+    <t>Codeunit</t>
+  </si>
+  <si>
+    <t>PreExpenseInvoiceGSTExport.Report.al</t>
+  </si>
+  <si>
+    <t>PreSalesInvoiceGST.Report.al</t>
+  </si>
+  <si>
+    <t>PreSalesInvoiceGSTExport.Report.al</t>
+  </si>
+  <si>
+    <t>PreSalesInvoiceGSTSEZ.Report.al</t>
+  </si>
+  <si>
+    <t>ProformaInvoice.Report.al</t>
+  </si>
+  <si>
+    <t>PurchaseOrder.Report.al</t>
+  </si>
+  <si>
+    <t>ResponsiblePersonwise.Report.al</t>
+  </si>
+  <si>
+    <t>RTGSReport.Report.al</t>
+  </si>
+  <si>
+    <t>RTGSReportPosted.Report.al</t>
+  </si>
+  <si>
+    <t>SalesInvoiceGST.Report.al</t>
+  </si>
+  <si>
+    <t>SalesInvoiceGSTSEZ.Report.al</t>
+  </si>
+  <si>
+    <t>SalesInvoiceServTax.Report.al</t>
+  </si>
+  <si>
+    <t>SalesRegisterExtraction.Report.al</t>
+  </si>
+  <si>
+    <t>BankPaymentVoucher.Report.al</t>
+  </si>
+  <si>
+    <t>ChallanBook.Report.al</t>
+  </si>
+  <si>
+    <t>CheckPrinting.Report.al</t>
+  </si>
+  <si>
+    <t>CheckPrintingReportwoPA.Report.al</t>
+  </si>
+  <si>
+    <t>CreditMemoExpenseGST.Report.al</t>
+  </si>
+  <si>
+    <t>CreditMemoExpenseServTax.Report.al</t>
+  </si>
+  <si>
+    <t>CreditMemoFeeGST.Report.al</t>
+  </si>
+  <si>
+    <t>CreditMemoFeeServTax.Report.al</t>
+  </si>
+  <si>
+    <t>ExpenseInvoiceGST.Report.al</t>
+  </si>
+  <si>
+    <t>ExpenseInvoiceServTax.Report.al</t>
+  </si>
+  <si>
+    <t>IndianBanKSingleLine.Report.al</t>
+  </si>
+  <si>
+    <t>PreExpenseInvoiceGST.Report.al</t>
+  </si>
+  <si>
+    <t>Report</t>
   </si>
 </sst>
 </file>
@@ -375,10 +1557,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -675,8 +1858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:C49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1231,4 +2414,2159 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C163"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="31" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C37" s="2"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C40" s="2"/>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C41" s="2"/>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C42" s="2"/>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C43" s="2"/>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C44" s="2"/>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C45" s="2"/>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C46" s="2"/>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C47" s="2"/>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C48" s="2"/>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C49" s="2"/>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C50" s="2"/>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C51" s="2"/>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C52" s="2"/>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C53" s="2"/>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C54" s="2"/>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C55" s="2"/>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C56" s="2"/>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C57" s="2"/>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C58" s="2"/>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C59" s="2"/>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C60" s="2"/>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C61" s="2"/>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C62" s="2"/>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C63" s="2"/>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C64" s="2"/>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C65" s="2"/>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C66" s="2"/>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C67" s="2"/>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C68" s="2"/>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C69" s="2"/>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C70" s="2"/>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C71" s="2"/>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C72" s="2"/>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C73" s="2"/>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C74" s="2"/>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C75" s="2"/>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" s="2"/>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C77" s="2"/>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C78" s="2"/>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C79" s="2"/>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C80" s="2"/>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C81" s="2"/>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C82" s="2"/>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C83" s="2"/>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C84" s="2"/>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C85" s="2"/>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C86" s="2"/>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C87" s="2"/>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C88" s="2"/>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C89" s="2"/>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C90" s="2"/>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C91" s="2"/>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C92" s="2"/>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C93" s="2"/>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C94" s="2"/>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C95" s="2"/>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C96" s="2"/>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C97" s="2"/>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C98" s="2"/>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C99" s="2"/>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C100" s="2"/>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C101" s="2"/>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C102" s="2"/>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C103" s="2"/>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C104" s="2"/>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C105" s="2"/>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C106" s="2"/>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C107" s="2"/>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C108" s="2"/>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C109" s="2"/>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C110" s="2"/>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C111" s="2"/>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C112" s="2"/>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C113" s="2"/>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C114" s="2"/>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C115" s="2"/>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C116" s="2"/>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C117" s="2"/>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C118" s="2"/>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C119" s="2"/>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C120" s="2"/>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C121" s="2"/>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C122" s="2"/>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C123" s="2"/>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C124" s="2"/>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C125" s="2"/>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C126" s="2"/>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C127" s="2"/>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C132" s="2"/>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C133" s="2"/>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C134" s="2"/>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C135" s="2"/>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C136" s="2"/>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C137" s="2"/>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C138" s="2"/>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C139" s="2"/>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C140" s="2"/>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C141" s="2"/>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C142" s="2"/>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C143" s="2"/>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C144" s="2"/>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C145" s="2"/>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C146" s="2"/>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C147" s="2"/>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C148" s="2"/>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C149" s="2"/>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C150" s="2"/>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C151" s="2"/>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C152" s="2"/>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C153" s="2"/>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C154" s="2"/>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C155" s="2"/>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C156" s="2"/>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C157" s="2"/>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C158" s="2"/>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C159" s="2"/>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C160" s="2"/>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C161" s="2"/>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C162" s="2"/>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C163" s="2"/>
+    </row>
+  </sheetData>
+  <sortState ref="A2:C163">
+    <sortCondition ref="A2:A163" customList="0,1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>491</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="67.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/UpgradeNAVtoBC.xlsx
+++ b/UpgradeNAVtoBC.xlsx
@@ -20,152 +20,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="517">
-  <si>
-    <t>GL Account.al</t>
-  </si>
-  <si>
-    <t>Service Transfer Line.al</t>
-  </si>
-  <si>
-    <t>Location Distribution.al</t>
-  </si>
-  <si>
-    <t>Service Tax Entry.al</t>
-  </si>
-  <si>
-    <t>Batch Header.al</t>
-  </si>
-  <si>
-    <t>Gen. Journal Narration.al</t>
-  </si>
-  <si>
-    <t>GL Entry.al</t>
-  </si>
-  <si>
-    <t>Reversal Entry.al</t>
-  </si>
-  <si>
-    <t>Customer.al</t>
-  </si>
-  <si>
-    <t>Cust. Ledger Entry.al</t>
-  </si>
-  <si>
-    <t>Vendor.al</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="550">
   <si>
     <t>Source Code Setup.al</t>
   </si>
   <si>
-    <t>Vendor Ledger Entry.al</t>
-  </si>
-  <si>
-    <t>Bank Account.al</t>
-  </si>
-  <si>
-    <t>Bank Account Ledger Entry.al</t>
-  </si>
-  <si>
-    <t>Bank Acc. Reconciliation Line.al</t>
-  </si>
-  <si>
-    <t>Bank Account Statement Line.al</t>
-  </si>
-  <si>
     <t>Payment Terms.al</t>
   </si>
   <si>
-    <t>Dimension.al</t>
-  </si>
-  <si>
-    <t>Sales Header.al</t>
-  </si>
-  <si>
-    <t>Sales Line.al</t>
-  </si>
-  <si>
-    <t>Purchase Header.al</t>
-  </si>
-  <si>
-    <t>CV Ledger Entry Buffer.al</t>
-  </si>
-  <si>
     <t>SMTP Mail Setup.al</t>
   </si>
   <si>
-    <t>Sales Comment Line.al</t>
-  </si>
-  <si>
-    <t>Accounting Period.al</t>
-  </si>
-  <si>
-    <t>Sales Header Archive.al</t>
-  </si>
-  <si>
-    <t>Sales Line Archive.al</t>
-  </si>
-  <si>
-    <t>Employee.al</t>
-  </si>
-  <si>
-    <t>Transfer Line.al</t>
-  </si>
-  <si>
-    <t>Return Receipt Header.al</t>
-  </si>
-  <si>
-    <t>Return Receipt Line.al</t>
-  </si>
-  <si>
     <t>Company Information.al</t>
   </si>
   <si>
-    <t>Gen. Journal Line.al</t>
-  </si>
-  <si>
-    <t>Acc. Schedule Name.al</t>
-  </si>
-  <si>
     <t>User Setup.al</t>
   </si>
   <si>
     <t>General Ledger Setup.al</t>
   </si>
   <si>
-    <t>Sales Shipment Header.al</t>
-  </si>
-  <si>
-    <t>Sales Shipment Line.al</t>
-  </si>
-  <si>
-    <t>Sales Invoice Header.al</t>
-  </si>
-  <si>
-    <t>Sales Invoice Line.al</t>
-  </si>
-  <si>
-    <t>Sales Cr.Memo Header.al</t>
-  </si>
-  <si>
-    <t>Sales Cr.Memo Line.al</t>
-  </si>
-  <si>
-    <t>Purch. Inv. Header.al</t>
-  </si>
-  <si>
-    <t>Data Exch. Field.al</t>
-  </si>
-  <si>
-    <t>Purch. Cr. Memo Hdr..al</t>
-  </si>
-  <si>
-    <t>Posted Str Order Line Details.al</t>
-  </si>
-  <si>
-    <t>Location.al</t>
-  </si>
-  <si>
     <t>tableextension50012</t>
   </si>
   <si>
@@ -1571,6 +1445,231 @@
   </si>
   <si>
     <t>Level 1 -Compiled</t>
+  </si>
+  <si>
+    <t>NoSeries.PageExt.al</t>
+  </si>
+  <si>
+    <t>NoSeriesLines.PageExt.al</t>
+  </si>
+  <si>
+    <t>PostedPurchaseCreditMemo.PageExt.al</t>
+  </si>
+  <si>
+    <t>PostedPurchaseInvoice.PageExt.al</t>
+  </si>
+  <si>
+    <t>PostedReturnReceipt.PageExt.al</t>
+  </si>
+  <si>
+    <t>PostedReturnReceiptLines.PageExt.al</t>
+  </si>
+  <si>
+    <t>PostedReturnReceipts.PageExt.al</t>
+  </si>
+  <si>
+    <t>PostedReturnReceiptSubform.PageExt.al</t>
+  </si>
+  <si>
+    <t>PostedSalesCreditMemo.PageExt.al</t>
+  </si>
+  <si>
+    <t>PostedSalesCreditMemos.PageExt.al</t>
+  </si>
+  <si>
+    <t>PostedSalesInvoice.PageExt.al</t>
+  </si>
+  <si>
+    <t>PostedSalesInvoices.PageExt.al</t>
+  </si>
+  <si>
+    <t>PurchaseCreditMemo.PageExt.al</t>
+  </si>
+  <si>
+    <t>PurchaseInvoice.PageExt.al</t>
+  </si>
+  <si>
+    <t>PurchaseJournal.PageExt.al</t>
+  </si>
+  <si>
+    <t>PurchaseOrderSubform.PageExt.al</t>
+  </si>
+  <si>
+    <t>PurchasesPayablesSetup.PageExt.al</t>
+  </si>
+  <si>
+    <t>PurchCrMemoSubform.PageExt.al</t>
+  </si>
+  <si>
+    <t>PurchInvoiceSubform.PageExt.al</t>
+  </si>
+  <si>
+    <t>ReturnReceiptLines.PageExt.al</t>
+  </si>
+  <si>
+    <t>SalesCommentSheet.PageExt.al</t>
+  </si>
+  <si>
+    <t>SalesCreditMemo.PageExt.al</t>
+  </si>
+  <si>
+    <t>SalesCrMemoSubform.PageExt.al</t>
+  </si>
+  <si>
+    <t>SalesInvoice.PageExt.al</t>
+  </si>
+  <si>
+    <t>SalesInvoiceList.PageExt.al</t>
+  </si>
+  <si>
+    <t>SalesInvoiceSubform.PageExt.al</t>
+  </si>
+  <si>
+    <t>SalesQuoteSubform.PageExt.al</t>
+  </si>
+  <si>
+    <t>VendorCard.PageExt.al</t>
+  </si>
+  <si>
+    <t>VendorLedgerEntries.PageExt.al</t>
+  </si>
+  <si>
+    <t>VendorList.PageExt.al</t>
+  </si>
+  <si>
+    <t>CustomerCard.PageExt.al</t>
+  </si>
+  <si>
+    <t>CustomerLedgerEntries.PageExt.al</t>
+  </si>
+  <si>
+    <t>CustomerList.PageExt.al</t>
+  </si>
+  <si>
+    <t>GetReturnReceiptLines.PageExt.al</t>
+  </si>
+  <si>
+    <t>MiniVendorCard.PageExt.al</t>
+  </si>
+  <si>
+    <t>MiniVendorList.PageExt.al</t>
+  </si>
+  <si>
+    <t>Level-1 Compiled</t>
+  </si>
+  <si>
+    <t>CVLedgerEntryBuffer.TableExt.al</t>
+  </si>
+  <si>
+    <t>DataExchField.TableExt.al</t>
+  </si>
+  <si>
+    <t>Dimension.TableExt.al</t>
+  </si>
+  <si>
+    <t>GLAccount.TableExt.al</t>
+  </si>
+  <si>
+    <t>Location.TableExt.al</t>
+  </si>
+  <si>
+    <t>PKFCompanyInformation.TableExt.al</t>
+  </si>
+  <si>
+    <t>ReturnReceiptHeader.TableExt.al</t>
+  </si>
+  <si>
+    <t>ReturnReceiptLine.TableExt.al</t>
+  </si>
+  <si>
+    <t>UserSetup.TableExt.al</t>
+  </si>
+  <si>
+    <t>AccScheduleName.TableExt.al</t>
+  </si>
+  <si>
+    <t>BankAccount.TableExt.al</t>
+  </si>
+  <si>
+    <t>BankAccReconciliationLine.TableExt.al</t>
+  </si>
+  <si>
+    <t>ObjectName</t>
+  </si>
+  <si>
+    <t>In Vs Code</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Acc.ScheduleName.TableExt.al</t>
+  </si>
+  <si>
+    <t>AccountingPeriod.TableExt.al</t>
+  </si>
+  <si>
+    <t>BankAcc.ReconciliationLine.TableExt.al</t>
+  </si>
+  <si>
+    <t>BankAccountStatementLine.TableExt.al</t>
+  </si>
+  <si>
+    <t>BatchHeader.TableExt.al</t>
+  </si>
+  <si>
+    <t>CompanyInformation.TableExt.al</t>
+  </si>
+  <si>
+    <t>Cust.LedgerEntry.TableExt.al</t>
+  </si>
+  <si>
+    <t>DataExch.Field.TableExt.al</t>
+  </si>
+  <si>
+    <t>LocationDistribution.TableExt.al</t>
+  </si>
+  <si>
+    <t>PaymentTerms.TableExt.al</t>
+  </si>
+  <si>
+    <t>PostedStrOrderLineDetails.TableExt.al</t>
+  </si>
+  <si>
+    <t>Purch.Cr.MemoHdr..TableExt.al</t>
+  </si>
+  <si>
+    <t>Purch.Inv.Header.TableExt.al</t>
+  </si>
+  <si>
+    <t>ReversalEntry.TableExt.al</t>
+  </si>
+  <si>
+    <t>SalesCr.MemoHeader.TableExt.al</t>
+  </si>
+  <si>
+    <t>SalesCr.MemoLine.TableExt.al</t>
+  </si>
+  <si>
+    <t>ServiceTaxEntry.TableExt.al</t>
+  </si>
+  <si>
+    <t>ServiceTransferLine.TableExt.al</t>
+  </si>
+  <si>
+    <t>SMTPMailSetup.TableExt.al</t>
+  </si>
+  <si>
+    <t>SourceCodeSetup.TableExt.al</t>
+  </si>
+  <si>
+    <t>TransferLine.TableExt.al</t>
+  </si>
+  <si>
+    <t>GenJournalNarration.TableExt.al</t>
+  </si>
+  <si>
+    <t>Removed From BC</t>
   </si>
 </sst>
 </file>
@@ -1602,7 +1701,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1625,15 +1724,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1930,698 +2039,782 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26.5703125" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="65.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>524</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>98</v>
+        <v>56</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>527</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>493</v>
+        <v>521</v>
       </c>
       <c r="F2" t="s">
-        <v>516</v>
+        <v>474</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>528</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>494</v>
+        <v>522</v>
       </c>
       <c r="F3" t="s">
-        <v>516</v>
+        <v>474</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>529</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="E4" t="s">
-        <v>495</v>
+        <v>468</v>
       </c>
       <c r="F4" t="s">
-        <v>516</v>
+        <v>474</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>40</v>
+        <v>468</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="E5" t="s">
-        <v>496</v>
+        <v>523</v>
       </c>
       <c r="F5" t="s">
-        <v>516</v>
+        <v>474</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>530</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E6" t="s">
-        <v>497</v>
+        <v>58</v>
       </c>
       <c r="F6" t="s">
-        <v>516</v>
+        <v>474</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>42</v>
+        <v>522</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E7" t="s">
-        <v>498</v>
+        <v>58</v>
       </c>
       <c r="F7" t="s">
-        <v>516</v>
+        <v>474</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>43</v>
+        <v>531</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E8" t="s">
-        <v>499</v>
+        <v>57</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>531</v>
       </c>
       <c r="F8" t="s">
-        <v>516</v>
+        <v>549</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>44</v>
+        <v>532</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>500</v>
+        <v>517</v>
       </c>
       <c r="F9" t="s">
-        <v>516</v>
+        <v>474</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>45</v>
+        <v>533</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>501</v>
+        <v>469</v>
       </c>
       <c r="F10" t="s">
-        <v>516</v>
+        <v>474</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>46</v>
+        <v>470</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>502</v>
+        <v>470</v>
       </c>
       <c r="F11" t="s">
-        <v>516</v>
+        <v>474</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>47</v>
+        <v>512</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="E12" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="F12" t="s">
-        <v>516</v>
+        <v>474</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>0</v>
+        <v>534</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="E13" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="F13" t="s">
-        <v>516</v>
+        <v>474</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>1</v>
+        <v>514</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="E14" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="F14" t="s">
-        <v>516</v>
+        <v>474</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>2</v>
+        <v>471</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="E15" t="s">
-        <v>506</v>
+        <v>471</v>
       </c>
       <c r="F15" t="s">
-        <v>516</v>
+        <v>474</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>3</v>
+        <v>473</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="E16" t="s">
-        <v>507</v>
+        <v>472</v>
       </c>
       <c r="F16" t="s">
-        <v>516</v>
+        <v>474</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>4</v>
+        <v>548</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="E17" t="s">
-        <v>508</v>
+        <v>473</v>
       </c>
       <c r="F17" t="s">
-        <v>516</v>
+        <v>474</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>5</v>
+        <v>472</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E18" t="s">
-        <v>509</v>
-      </c>
-      <c r="F18" t="s">
-        <v>516</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>6</v>
+        <v>515</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="E19" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="F19" t="s">
-        <v>516</v>
+        <v>474</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>7</v>
+        <v>451</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="E20" t="s">
-        <v>511</v>
+        <v>451</v>
       </c>
       <c r="F20" t="s">
-        <v>516</v>
+        <v>474</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>8</v>
+        <v>535</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E21" t="s">
-        <v>512</v>
-      </c>
-      <c r="F21" t="s">
-        <v>516</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="E22" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="F22" t="s">
-        <v>516</v>
+        <v>474</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E23" t="s">
-        <v>514</v>
-      </c>
       <c r="F23" t="s">
-        <v>516</v>
+        <v>474</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>11</v>
+        <v>537</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E24" t="s">
-        <v>515</v>
+        <v>57</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>537</v>
       </c>
       <c r="F24" t="s">
-        <v>516</v>
+        <v>549</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>12</v>
+        <v>538</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>99</v>
+        <v>57</v>
+      </c>
+      <c r="E25" t="s">
+        <v>452</v>
+      </c>
+      <c r="F25" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>13</v>
+        <v>539</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>100</v>
+        <v>57</v>
+      </c>
+      <c r="E26" t="s">
+        <v>453</v>
+      </c>
+      <c r="F26" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>14</v>
+        <v>452</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>100</v>
+        <v>58</v>
+      </c>
+      <c r="E27" t="s">
+        <v>454</v>
+      </c>
+      <c r="F27" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>15</v>
+        <v>518</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>100</v>
+        <v>58</v>
+      </c>
+      <c r="E28" t="s">
+        <v>518</v>
+      </c>
+      <c r="F28" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>16</v>
+        <v>519</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>100</v>
+        <v>58</v>
+      </c>
+      <c r="E29" t="s">
+        <v>519</v>
+      </c>
+      <c r="F29" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>17</v>
+        <v>540</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="2" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>18</v>
+        <v>455</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>100</v>
+        <v>58</v>
+      </c>
+      <c r="E31" t="s">
+        <v>455</v>
+      </c>
+      <c r="F31" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>19</v>
+        <v>541</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>57</v>
+      </c>
+      <c r="E32" t="s">
+        <v>456</v>
+      </c>
+      <c r="F32" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="2" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>20</v>
+        <v>542</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>57</v>
+      </c>
+      <c r="E33" t="s">
+        <v>457</v>
+      </c>
+      <c r="F33" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="2" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>21</v>
+        <v>459</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>58</v>
+      </c>
+      <c r="E34" t="s">
+        <v>458</v>
+      </c>
+      <c r="F34" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="2" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>22</v>
+        <v>458</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>58</v>
+      </c>
+      <c r="E35" t="s">
+        <v>459</v>
+      </c>
+      <c r="F35" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="2" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>23</v>
+        <v>460</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>57</v>
+      </c>
+      <c r="E36" t="s">
+        <v>460</v>
+      </c>
+      <c r="F36" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="2" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>24</v>
+        <v>461</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>57</v>
+      </c>
+      <c r="E37" t="s">
+        <v>461</v>
+      </c>
+      <c r="F37" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="2" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>25</v>
+        <v>463</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>58</v>
+      </c>
+      <c r="E38" t="s">
+        <v>462</v>
+      </c>
+      <c r="F38" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="2" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>26</v>
+        <v>462</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>58</v>
+      </c>
+      <c r="E39" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="2" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>27</v>
+        <v>464</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>57</v>
+      </c>
+      <c r="E40" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="2" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>28</v>
+        <v>465</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>57</v>
+      </c>
+      <c r="E41" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="2" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F42" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="B44" s="2" t="s">
-        <v>31</v>
+        <v>545</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="2" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>32</v>
+        <v>546</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="2" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>33</v>
+        <v>547</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="2" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>34</v>
+        <v>520</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>58</v>
+      </c>
+      <c r="E47" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="2" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>35</v>
+        <v>467</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>57</v>
+      </c>
+      <c r="E48" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="2" t="s">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>36</v>
+        <v>466</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>100</v>
+        <v>57</v>
+      </c>
+      <c r="E49" t="s">
+        <v>467</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C49">
-    <sortCondition ref="A2:A49" customList="0,1"/>
+  <sortState ref="E2:F36">
+    <sortCondition ref="E2:E36"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2630,10 +2823,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C163"/>
+  <dimension ref="A1:G163"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B129" sqref="B129"/>
+    <sheetView topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38:B163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2641,1482 +2834,1700 @@
     <col min="1" max="1" width="31" customWidth="1"/>
     <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="69.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="F2" t="s">
+        <v>475</v>
+      </c>
+      <c r="G2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="F3" t="s">
+        <v>476</v>
+      </c>
+      <c r="G3" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="F4" t="s">
+        <v>477</v>
+      </c>
+      <c r="G4" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="F5" t="s">
+        <v>478</v>
+      </c>
+      <c r="G5" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="F6" t="s">
+        <v>479</v>
+      </c>
+      <c r="G6" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="F7" t="s">
+        <v>480</v>
+      </c>
+      <c r="G7" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="F8" t="s">
+        <v>481</v>
+      </c>
+      <c r="G8" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="F9" t="s">
+        <v>482</v>
+      </c>
+      <c r="G9" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="F10" t="s">
+        <v>483</v>
+      </c>
+      <c r="G10" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="F11" t="s">
+        <v>484</v>
+      </c>
+      <c r="G11" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="F12" t="s">
+        <v>485</v>
+      </c>
+      <c r="G12" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="F13" t="s">
+        <v>486</v>
+      </c>
+      <c r="G13" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="F14" t="s">
+        <v>487</v>
+      </c>
+      <c r="G14" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="F15" t="s">
+        <v>488</v>
+      </c>
+      <c r="G15" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="F16" t="s">
+        <v>489</v>
+      </c>
+      <c r="G16" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="F17" t="s">
+        <v>490</v>
+      </c>
+      <c r="G17" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="F18" t="s">
+        <v>491</v>
+      </c>
+      <c r="G18" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="F19" t="s">
+        <v>492</v>
+      </c>
+      <c r="G19" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="F20" t="s">
+        <v>493</v>
+      </c>
+      <c r="G20" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="F21" t="s">
+        <v>494</v>
+      </c>
+      <c r="G21" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="F22" t="s">
+        <v>495</v>
+      </c>
+      <c r="G22" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="F23" t="s">
+        <v>496</v>
+      </c>
+      <c r="G23" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="F24" t="s">
+        <v>497</v>
+      </c>
+      <c r="G24" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="F25" t="s">
+        <v>498</v>
+      </c>
+      <c r="G25" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="F26" t="s">
+        <v>499</v>
+      </c>
+      <c r="G26" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="F27" t="s">
+        <v>500</v>
+      </c>
+      <c r="G27" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="F28" t="s">
+        <v>501</v>
+      </c>
+      <c r="G28" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="F29" t="s">
+        <v>502</v>
+      </c>
+      <c r="G29" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="F30" t="s">
+        <v>503</v>
+      </c>
+      <c r="G30" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="F31" t="s">
+        <v>504</v>
+      </c>
+      <c r="G31" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="F32" t="s">
+        <v>505</v>
+      </c>
+      <c r="G32" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="F33" t="s">
+        <v>506</v>
+      </c>
+      <c r="G33" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="F34" t="s">
+        <v>507</v>
+      </c>
+      <c r="G34" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="F35" t="s">
+        <v>508</v>
+      </c>
+      <c r="G35" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="F36" t="s">
+        <v>509</v>
+      </c>
+      <c r="G36" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="F37" t="s">
+        <v>510</v>
+      </c>
+      <c r="G37" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" s="2"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" s="2"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" s="2"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" s="2"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C44" s="2"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C45" s="2"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="C46" s="2"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="B47" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" s="2"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C28" s="2"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C29" s="2"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C30" s="2"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C31" s="2"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C34" s="2"/>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C35" s="2"/>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C36" s="2"/>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C37" s="2"/>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C38" s="2"/>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C39" s="2"/>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C40" s="2"/>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C41" s="2"/>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C42" s="2"/>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C43" s="2"/>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C44" s="2"/>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C45" s="2"/>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C46" s="2"/>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C47" s="2"/>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="2" t="s">
-        <v>301</v>
-      </c>
       <c r="B48" s="2" t="s">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="C48" s="2"/>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2" t="s">
-        <v>302</v>
+        <v>260</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>143</v>
+        <v>101</v>
       </c>
       <c r="C49" s="2"/>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2" t="s">
-        <v>303</v>
+        <v>261</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>144</v>
+        <v>102</v>
       </c>
       <c r="C50" s="2"/>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2" t="s">
-        <v>304</v>
+        <v>262</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>145</v>
+        <v>103</v>
       </c>
       <c r="C51" s="2"/>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2" t="s">
-        <v>305</v>
+        <v>263</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="C52" s="2"/>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2" t="s">
-        <v>306</v>
+        <v>264</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
       <c r="C53" s="2"/>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2" t="s">
-        <v>307</v>
+        <v>265</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>148</v>
+        <v>106</v>
       </c>
       <c r="C54" s="2"/>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2" t="s">
-        <v>308</v>
+        <v>266</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>149</v>
+        <v>107</v>
       </c>
       <c r="C55" s="2"/>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2" t="s">
-        <v>309</v>
+        <v>267</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>150</v>
+        <v>108</v>
       </c>
       <c r="C56" s="2"/>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2" t="s">
-        <v>310</v>
+        <v>268</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>151</v>
+        <v>109</v>
       </c>
       <c r="C57" s="2"/>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2" t="s">
-        <v>311</v>
+        <v>269</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>152</v>
+        <v>110</v>
       </c>
       <c r="C58" s="2"/>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2" t="s">
-        <v>312</v>
+        <v>270</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>153</v>
+        <v>111</v>
       </c>
       <c r="C59" s="2"/>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2" t="s">
-        <v>313</v>
+        <v>271</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>154</v>
+        <v>112</v>
       </c>
       <c r="C60" s="2"/>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2" t="s">
-        <v>314</v>
+        <v>272</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>155</v>
+        <v>113</v>
       </c>
       <c r="C61" s="2"/>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="2" t="s">
-        <v>315</v>
+        <v>273</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>156</v>
+        <v>114</v>
       </c>
       <c r="C62" s="2"/>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="2" t="s">
-        <v>316</v>
+        <v>274</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>157</v>
+        <v>115</v>
       </c>
       <c r="C63" s="2"/>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="2" t="s">
-        <v>317</v>
+        <v>275</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>158</v>
+        <v>116</v>
       </c>
       <c r="C64" s="2"/>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="2" t="s">
-        <v>318</v>
+        <v>276</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="C65" s="2"/>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="2" t="s">
-        <v>319</v>
+        <v>277</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>160</v>
+        <v>118</v>
       </c>
       <c r="C66" s="2"/>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="2" t="s">
-        <v>320</v>
+        <v>278</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>161</v>
+        <v>119</v>
       </c>
       <c r="C67" s="2"/>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="2" t="s">
-        <v>321</v>
+        <v>279</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>162</v>
+        <v>120</v>
       </c>
       <c r="C68" s="2"/>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="2" t="s">
-        <v>322</v>
+        <v>280</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>163</v>
+        <v>121</v>
       </c>
       <c r="C69" s="2"/>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="2" t="s">
-        <v>323</v>
+        <v>281</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>164</v>
+        <v>122</v>
       </c>
       <c r="C70" s="2"/>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="2" t="s">
-        <v>324</v>
+        <v>282</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>165</v>
+        <v>123</v>
       </c>
       <c r="C71" s="2"/>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="2" t="s">
-        <v>325</v>
+        <v>283</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>166</v>
+        <v>124</v>
       </c>
       <c r="C72" s="2"/>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="2" t="s">
-        <v>326</v>
+        <v>284</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>167</v>
+        <v>125</v>
       </c>
       <c r="C73" s="2"/>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="2" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>168</v>
+        <v>126</v>
       </c>
       <c r="C74" s="2"/>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="2" t="s">
-        <v>328</v>
+        <v>286</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>169</v>
+        <v>127</v>
       </c>
       <c r="C75" s="2"/>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="2" t="s">
-        <v>329</v>
+        <v>287</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C76" s="2"/>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="2" t="s">
-        <v>330</v>
+        <v>288</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>170</v>
+        <v>128</v>
       </c>
       <c r="C77" s="2"/>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="2" t="s">
-        <v>331</v>
+        <v>289</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>171</v>
+        <v>129</v>
       </c>
       <c r="C78" s="2"/>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="2" t="s">
-        <v>332</v>
+        <v>290</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>172</v>
+        <v>130</v>
       </c>
       <c r="C79" s="2"/>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="2" t="s">
-        <v>333</v>
+        <v>291</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="C80" s="2"/>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="2" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>174</v>
+        <v>132</v>
       </c>
       <c r="C81" s="2"/>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="2" t="s">
-        <v>335</v>
+        <v>293</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
       <c r="C82" s="2"/>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="2" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="C83" s="2"/>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="2" t="s">
-        <v>337</v>
+        <v>295</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>177</v>
+        <v>135</v>
       </c>
       <c r="C84" s="2"/>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="2" t="s">
-        <v>338</v>
+        <v>296</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>178</v>
+        <v>136</v>
       </c>
       <c r="C85" s="2"/>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="2" t="s">
-        <v>339</v>
+        <v>297</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>179</v>
+        <v>137</v>
       </c>
       <c r="C86" s="2"/>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="2" t="s">
-        <v>340</v>
+        <v>298</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>180</v>
+        <v>138</v>
       </c>
       <c r="C87" s="2"/>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="2" t="s">
-        <v>341</v>
+        <v>299</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C88" s="2"/>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="2" t="s">
-        <v>342</v>
+        <v>300</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C89" s="2"/>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="2" t="s">
-        <v>343</v>
+        <v>301</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>181</v>
+        <v>139</v>
       </c>
       <c r="C90" s="2"/>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="2" t="s">
-        <v>344</v>
+        <v>302</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>182</v>
+        <v>140</v>
       </c>
       <c r="C91" s="2"/>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="2" t="s">
-        <v>345</v>
+        <v>303</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>183</v>
+        <v>141</v>
       </c>
       <c r="C92" s="2"/>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="2" t="s">
-        <v>346</v>
+        <v>304</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>184</v>
+        <v>142</v>
       </c>
       <c r="C93" s="2"/>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="2" t="s">
-        <v>347</v>
+        <v>305</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>185</v>
+        <v>143</v>
       </c>
       <c r="C94" s="2"/>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="2" t="s">
-        <v>348</v>
+        <v>306</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>186</v>
+        <v>144</v>
       </c>
       <c r="C95" s="2"/>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="2" t="s">
-        <v>349</v>
+        <v>307</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>187</v>
+        <v>145</v>
       </c>
       <c r="C96" s="2"/>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="2" t="s">
-        <v>350</v>
+        <v>308</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>188</v>
+        <v>146</v>
       </c>
       <c r="C97" s="2"/>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="2" t="s">
-        <v>351</v>
+        <v>309</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>189</v>
+        <v>147</v>
       </c>
       <c r="C98" s="2"/>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="2" t="s">
-        <v>352</v>
+        <v>310</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="C99" s="2"/>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="2" t="s">
-        <v>353</v>
+        <v>311</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>191</v>
+        <v>149</v>
       </c>
       <c r="C100" s="2"/>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="2" t="s">
-        <v>354</v>
+        <v>312</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>192</v>
+        <v>150</v>
       </c>
       <c r="C101" s="2"/>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="2" t="s">
-        <v>355</v>
+        <v>313</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>193</v>
+        <v>151</v>
       </c>
       <c r="C102" s="2"/>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="2" t="s">
-        <v>356</v>
+        <v>314</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>194</v>
+        <v>152</v>
       </c>
       <c r="C103" s="2"/>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="2" t="s">
-        <v>357</v>
+        <v>315</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>195</v>
+        <v>153</v>
       </c>
       <c r="C104" s="2"/>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="2" t="s">
-        <v>358</v>
+        <v>316</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>196</v>
+        <v>154</v>
       </c>
       <c r="C105" s="2"/>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="2" t="s">
-        <v>359</v>
+        <v>317</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>197</v>
+        <v>155</v>
       </c>
       <c r="C106" s="2"/>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="2" t="s">
-        <v>360</v>
+        <v>318</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>198</v>
+        <v>156</v>
       </c>
       <c r="C107" s="2"/>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="2" t="s">
-        <v>361</v>
+        <v>319</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c r="C108" s="2"/>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="2" t="s">
-        <v>362</v>
+        <v>320</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>200</v>
+        <v>158</v>
       </c>
       <c r="C109" s="2"/>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="2" t="s">
-        <v>363</v>
+        <v>321</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>201</v>
+        <v>159</v>
       </c>
       <c r="C110" s="2"/>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="2" t="s">
-        <v>364</v>
+        <v>322</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>202</v>
+        <v>160</v>
       </c>
       <c r="C111" s="2"/>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="2" t="s">
-        <v>365</v>
+        <v>323</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>203</v>
+        <v>161</v>
       </c>
       <c r="C112" s="2"/>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="2" t="s">
-        <v>366</v>
+        <v>324</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>204</v>
+        <v>162</v>
       </c>
       <c r="C113" s="2"/>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="2" t="s">
-        <v>367</v>
+        <v>325</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>205</v>
+        <v>163</v>
       </c>
       <c r="C114" s="2"/>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="2" t="s">
-        <v>368</v>
+        <v>326</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="C115" s="2"/>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="2" t="s">
-        <v>369</v>
+        <v>327</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>207</v>
+        <v>165</v>
       </c>
       <c r="C116" s="2"/>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="2" t="s">
-        <v>370</v>
+        <v>328</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>208</v>
+        <v>166</v>
       </c>
       <c r="C117" s="2"/>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="2" t="s">
-        <v>371</v>
+        <v>329</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>209</v>
+        <v>167</v>
       </c>
       <c r="C118" s="2"/>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="2" t="s">
-        <v>372</v>
+        <v>330</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="C119" s="2"/>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="2" t="s">
-        <v>373</v>
+        <v>331</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>211</v>
+        <v>169</v>
       </c>
       <c r="C120" s="2"/>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="2" t="s">
-        <v>374</v>
+        <v>332</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
       <c r="C121" s="2"/>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="2" t="s">
-        <v>375</v>
+        <v>333</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>213</v>
+        <v>171</v>
       </c>
       <c r="C122" s="2"/>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="2" t="s">
-        <v>376</v>
+        <v>334</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>214</v>
+        <v>172</v>
       </c>
       <c r="C123" s="2"/>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="2" t="s">
-        <v>377</v>
+        <v>335</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>215</v>
+        <v>173</v>
       </c>
       <c r="C124" s="2"/>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="2" t="s">
-        <v>378</v>
+        <v>336</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>216</v>
+        <v>174</v>
       </c>
       <c r="C125" s="2"/>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="2" t="s">
-        <v>379</v>
+        <v>337</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>217</v>
+        <v>175</v>
       </c>
       <c r="C126" s="2"/>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="2" t="s">
-        <v>380</v>
+        <v>338</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>218</v>
+        <v>176</v>
       </c>
       <c r="C127" s="2"/>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="2" t="s">
-        <v>381</v>
+        <v>339</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>219</v>
+        <v>177</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>220</v>
+        <v>178</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="2" t="s">
-        <v>382</v>
+        <v>340</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>219</v>
+        <v>177</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>221</v>
+        <v>179</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="2" t="s">
-        <v>383</v>
+        <v>341</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>222</v>
+        <v>180</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>223</v>
+        <v>181</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="2" t="s">
-        <v>384</v>
+        <v>342</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>224</v>
+        <v>182</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>225</v>
+        <v>183</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="2" t="s">
-        <v>385</v>
+        <v>343</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>226</v>
+        <v>184</v>
       </c>
       <c r="C132" s="2"/>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="2" t="s">
-        <v>386</v>
+        <v>344</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>227</v>
+        <v>185</v>
       </c>
       <c r="C133" s="2"/>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="2" t="s">
-        <v>387</v>
+        <v>345</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>228</v>
+        <v>186</v>
       </c>
       <c r="C134" s="2"/>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="2" t="s">
-        <v>388</v>
+        <v>346</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>229</v>
+        <v>187</v>
       </c>
       <c r="C135" s="2"/>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="2" t="s">
-        <v>389</v>
+        <v>347</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>230</v>
+        <v>188</v>
       </c>
       <c r="C136" s="2"/>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="2" t="s">
-        <v>390</v>
+        <v>348</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>231</v>
+        <v>189</v>
       </c>
       <c r="C137" s="2"/>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="2" t="s">
-        <v>391</v>
+        <v>349</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>232</v>
+        <v>190</v>
       </c>
       <c r="C138" s="2"/>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="2" t="s">
-        <v>392</v>
+        <v>350</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>233</v>
+        <v>191</v>
       </c>
       <c r="C139" s="2"/>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="2" t="s">
-        <v>393</v>
+        <v>351</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
       <c r="C140" s="2"/>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="2" t="s">
-        <v>394</v>
+        <v>352</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
       <c r="C141" s="2"/>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="2" t="s">
-        <v>395</v>
+        <v>353</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>236</v>
+        <v>194</v>
       </c>
       <c r="C142" s="2"/>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="2" t="s">
-        <v>396</v>
+        <v>354</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>237</v>
+        <v>195</v>
       </c>
       <c r="C143" s="2"/>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="2" t="s">
-        <v>397</v>
+        <v>355</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>238</v>
+        <v>196</v>
       </c>
       <c r="C144" s="2"/>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="2" t="s">
-        <v>398</v>
+        <v>356</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="C145" s="2"/>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="2" t="s">
-        <v>399</v>
+        <v>357</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
       <c r="C146" s="2"/>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="2" t="s">
-        <v>400</v>
+        <v>358</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>241</v>
+        <v>199</v>
       </c>
       <c r="C147" s="2"/>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="2" t="s">
-        <v>401</v>
+        <v>359</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>242</v>
+        <v>200</v>
       </c>
       <c r="C148" s="2"/>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="2" t="s">
-        <v>402</v>
+        <v>360</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>243</v>
+        <v>201</v>
       </c>
       <c r="C149" s="2"/>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="2" t="s">
-        <v>403</v>
+        <v>361</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>244</v>
+        <v>202</v>
       </c>
       <c r="C150" s="2"/>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="2" t="s">
-        <v>404</v>
+        <v>362</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>245</v>
+        <v>203</v>
       </c>
       <c r="C151" s="2"/>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="2" t="s">
-        <v>405</v>
+        <v>363</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>246</v>
+        <v>204</v>
       </c>
       <c r="C152" s="2"/>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="2" t="s">
-        <v>406</v>
+        <v>364</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>247</v>
+        <v>205</v>
       </c>
       <c r="C153" s="2"/>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="2" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>248</v>
+        <v>206</v>
       </c>
       <c r="C154" s="2"/>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="2" t="s">
-        <v>408</v>
+        <v>366</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>249</v>
+        <v>207</v>
       </c>
       <c r="C155" s="2"/>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="2" t="s">
-        <v>409</v>
+        <v>367</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>250</v>
+        <v>208</v>
       </c>
       <c r="C156" s="2"/>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="2" t="s">
-        <v>410</v>
+        <v>368</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>251</v>
+        <v>209</v>
       </c>
       <c r="C157" s="2"/>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="2" t="s">
-        <v>411</v>
+        <v>369</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>252</v>
+        <v>210</v>
       </c>
       <c r="C158" s="2"/>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="2" t="s">
-        <v>412</v>
+        <v>370</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>253</v>
+        <v>211</v>
       </c>
       <c r="C159" s="2"/>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="2" t="s">
-        <v>413</v>
+        <v>371</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>254</v>
+        <v>212</v>
       </c>
       <c r="C160" s="2"/>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="2" t="s">
-        <v>414</v>
+        <v>372</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>255</v>
+        <v>213</v>
       </c>
       <c r="C161" s="2"/>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="2" t="s">
-        <v>415</v>
+        <v>373</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>256</v>
+        <v>214</v>
       </c>
       <c r="C162" s="2"/>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="2" t="s">
-        <v>416</v>
+        <v>374</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>257</v>
+        <v>215</v>
       </c>
       <c r="C163" s="2"/>
     </row>
@@ -4143,210 +4554,210 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>492</v>
+        <v>450</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>467</v>
+        <v>425</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>492</v>
+        <v>450</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>468</v>
+        <v>426</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>492</v>
+        <v>450</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>469</v>
+        <v>427</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>492</v>
+        <v>450</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>470</v>
+        <v>428</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>492</v>
+        <v>450</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>471</v>
+        <v>429</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>492</v>
+        <v>450</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>472</v>
+        <v>430</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>492</v>
+        <v>450</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>473</v>
+        <v>431</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
-        <v>492</v>
+        <v>450</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>474</v>
+        <v>432</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>492</v>
+        <v>450</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>475</v>
+        <v>433</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>492</v>
+        <v>450</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>476</v>
+        <v>434</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>492</v>
+        <v>450</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>477</v>
+        <v>435</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="3" t="s">
-        <v>492</v>
+        <v>450</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>478</v>
+        <v>436</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="3" t="s">
-        <v>492</v>
+        <v>450</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>479</v>
+        <v>437</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="3" t="s">
-        <v>492</v>
+        <v>450</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>480</v>
+        <v>438</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="3" t="s">
-        <v>492</v>
+        <v>450</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>481</v>
+        <v>439</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>492</v>
+        <v>450</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>482</v>
+        <v>440</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>492</v>
+        <v>450</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>483</v>
+        <v>441</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>492</v>
+        <v>450</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>484</v>
+        <v>442</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>492</v>
+        <v>450</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>485</v>
+        <v>443</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>492</v>
+        <v>450</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>486</v>
+        <v>444</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>492</v>
+        <v>450</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>487</v>
+        <v>445</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>492</v>
+        <v>450</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>488</v>
+        <v>446</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>492</v>
+        <v>450</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>489</v>
+        <v>447</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>492</v>
+        <v>450</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>490</v>
+        <v>448</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>492</v>
+        <v>450</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>491</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -4370,138 +4781,138 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>438</v>
+        <v>396</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>422</v>
+        <v>380</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>438</v>
+        <v>396</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>423</v>
+        <v>381</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>438</v>
+        <v>396</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>424</v>
+        <v>382</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>438</v>
+        <v>396</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>425</v>
+        <v>383</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>438</v>
+        <v>396</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>426</v>
+        <v>384</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>438</v>
+        <v>396</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>427</v>
+        <v>385</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>438</v>
+        <v>396</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>428</v>
+        <v>386</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>438</v>
+        <v>396</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>429</v>
+        <v>387</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>438</v>
+        <v>396</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>430</v>
+        <v>388</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>438</v>
+        <v>396</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>431</v>
+        <v>389</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>438</v>
+        <v>396</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>432</v>
+        <v>390</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>438</v>
+        <v>396</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>433</v>
+        <v>391</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>438</v>
+        <v>396</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>434</v>
+        <v>392</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>438</v>
+        <v>396</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>435</v>
+        <v>393</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>438</v>
+        <v>396</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>436</v>
+        <v>394</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>438</v>
+        <v>396</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>437</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -4523,58 +4934,58 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>466</v>
+        <v>424</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>460</v>
+        <v>418</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>466</v>
+        <v>424</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>461</v>
+        <v>419</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>466</v>
+        <v>424</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>462</v>
+        <v>420</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>466</v>
+        <v>424</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>463</v>
+        <v>421</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>466</v>
+        <v>424</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>464</v>
+        <v>422</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>466</v>
+        <v>424</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>465</v>
+        <v>423</v>
       </c>
     </row>
   </sheetData>
@@ -4598,170 +5009,170 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>459</v>
+        <v>417</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>439</v>
+        <v>397</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>459</v>
+        <v>417</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>440</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>459</v>
+        <v>417</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>441</v>
+        <v>399</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>459</v>
+        <v>417</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>442</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>459</v>
+        <v>417</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>443</v>
+        <v>401</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>459</v>
+        <v>417</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>444</v>
+        <v>402</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>459</v>
+        <v>417</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>445</v>
+        <v>403</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>459</v>
+        <v>417</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>446</v>
+        <v>404</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>459</v>
+        <v>417</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>447</v>
+        <v>405</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>459</v>
+        <v>417</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>448</v>
+        <v>406</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>459</v>
+        <v>417</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>449</v>
+        <v>407</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>459</v>
+        <v>417</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>450</v>
+        <v>408</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>459</v>
+        <v>417</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>451</v>
+        <v>409</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>459</v>
+        <v>417</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>452</v>
+        <v>410</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>459</v>
+        <v>417</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>453</v>
+        <v>411</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>459</v>
+        <v>417</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>454</v>
+        <v>412</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>459</v>
+        <v>417</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>455</v>
+        <v>413</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>459</v>
+        <v>417</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>456</v>
+        <v>414</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>459</v>
+        <v>417</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>457</v>
+        <v>415</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>459</v>
+        <v>417</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>458</v>
+        <v>416</v>
       </c>
     </row>
   </sheetData>

--- a/UpgradeNAVtoBC.xlsx
+++ b/UpgradeNAVtoBC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="tableExt" sheetId="3" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="NewCodeunits" sheetId="7" r:id="rId5"/>
     <sheet name="NewPages" sheetId="9" r:id="rId6"/>
     <sheet name="Enums" sheetId="10" r:id="rId7"/>
+    <sheet name="Optimization Notes" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="553">
   <si>
     <t>Source Code Setup.al</t>
   </si>
@@ -1670,6 +1671,18 @@
   </si>
   <si>
     <t>Removed From BC</t>
+  </si>
+  <si>
+    <t>Need to put functions on table level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    local procedure AccountsPermission()
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+        AccountsPermission();//SDMBCS on 02022019
+</t>
   </si>
 </sst>
 </file>
@@ -1737,12 +1750,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2039,7 +2053,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+    <sheetView topLeftCell="B2" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -2825,8 +2839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G163"/>
   <sheetViews>
-    <sheetView topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38:B163"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2851,10 +2865,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>217</v>
       </c>
       <c r="C2" s="2"/>
       <c r="F2" t="s">
@@ -2866,10 +2880,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>376</v>
+        <v>343</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>216</v>
+        <v>184</v>
       </c>
       <c r="C3" s="2"/>
       <c r="F3" t="s">
@@ -2881,10 +2895,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>377</v>
+        <v>297</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>217</v>
+        <v>137</v>
       </c>
       <c r="C4" s="2"/>
       <c r="F4" t="s">
@@ -2896,10 +2910,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>378</v>
+        <v>279</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="C5" s="2"/>
       <c r="F5" t="s">
@@ -2911,10 +2925,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>379</v>
+        <v>293</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>4</v>
+        <v>133</v>
       </c>
       <c r="C6" s="2"/>
       <c r="F6" t="s">
@@ -2926,10 +2940,10 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>218</v>
+        <v>258</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="C7" s="2"/>
       <c r="F7" t="s">
@@ -2941,10 +2955,10 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>219</v>
+        <v>296</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="C8" s="2"/>
       <c r="F8" t="s">
@@ -2956,10 +2970,10 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>220</v>
+        <v>294</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>61</v>
+        <v>134</v>
       </c>
       <c r="C9" s="2"/>
       <c r="F9" t="s">
@@ -2971,10 +2985,10 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
-        <v>221</v>
+        <v>295</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>62</v>
+        <v>135</v>
       </c>
       <c r="C10" s="2"/>
       <c r="F10" t="s">
@@ -2986,10 +3000,10 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
-        <v>222</v>
+        <v>264</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="C11" s="2"/>
       <c r="F11" t="s">
@@ -3001,10 +3015,10 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
-        <v>223</v>
+        <v>260</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="C12" s="2"/>
       <c r="F12" t="s">
@@ -3016,10 +3030,10 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
-        <v>224</v>
+        <v>316</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>65</v>
+        <v>154</v>
       </c>
       <c r="C13" s="2"/>
       <c r="F13" t="s">
@@ -3031,10 +3045,10 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
-        <v>225</v>
+        <v>315</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>66</v>
+        <v>153</v>
       </c>
       <c r="C14" s="2"/>
       <c r="F14" t="s">
@@ -3046,10 +3060,10 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
-        <v>226</v>
+        <v>365</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>67</v>
+        <v>206</v>
       </c>
       <c r="C15" s="2"/>
       <c r="F15" t="s">
@@ -3061,10 +3075,10 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
-        <v>227</v>
+        <v>263</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="C16" s="2"/>
       <c r="F16" t="s">
@@ -3076,10 +3090,10 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
-        <v>228</v>
+        <v>283</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>69</v>
+        <v>124</v>
       </c>
       <c r="C17" s="2"/>
       <c r="F17" t="s">
@@ -3091,10 +3105,10 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2" t="s">
-        <v>229</v>
+        <v>265</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="C18" s="2"/>
       <c r="F18" t="s">
@@ -3106,10 +3120,10 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2" t="s">
-        <v>230</v>
+        <v>334</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>71</v>
+        <v>172</v>
       </c>
       <c r="C19" s="2"/>
       <c r="F19" t="s">
@@ -3121,10 +3135,10 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2" t="s">
-        <v>231</v>
+        <v>345</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>72</v>
+        <v>186</v>
       </c>
       <c r="C20" s="2"/>
       <c r="F20" t="s">
@@ -3136,10 +3150,10 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="C21" s="2"/>
       <c r="F21" t="s">
@@ -3151,10 +3165,10 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2" t="s">
-        <v>233</v>
+        <v>290</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="C22" s="2"/>
       <c r="F22" t="s">
@@ -3166,10 +3180,10 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2" t="s">
-        <v>234</v>
+        <v>292</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="C23" s="2"/>
       <c r="F23" t="s">
@@ -3181,10 +3195,10 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2" t="s">
-        <v>235</v>
+        <v>375</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="C24" s="2"/>
       <c r="F24" t="s">
@@ -3196,10 +3210,10 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2" t="s">
-        <v>236</v>
+        <v>359</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>77</v>
+        <v>200</v>
       </c>
       <c r="C25" s="2"/>
       <c r="F25" t="s">
@@ -3211,10 +3225,10 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="C26" s="2"/>
       <c r="F26" t="s">
@@ -3226,10 +3240,10 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="C27" s="2"/>
       <c r="F27" t="s">
@@ -3241,10 +3255,10 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2" t="s">
-        <v>239</v>
+        <v>327</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="C28" s="2"/>
       <c r="F28" t="s">
@@ -3256,10 +3270,10 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="C29" s="2"/>
       <c r="F29" t="s">
@@ -3271,10 +3285,10 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2" t="s">
-        <v>241</v>
+        <v>277</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="C30" s="2"/>
       <c r="F30" t="s">
@@ -3286,10 +3300,10 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2" t="s">
-        <v>242</v>
+        <v>280</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="C31" s="2"/>
       <c r="F31" t="s">
@@ -3301,10 +3315,10 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2" t="s">
-        <v>243</v>
+        <v>278</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="C32" s="2"/>
       <c r="F32" t="s">
@@ -3316,10 +3330,10 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2" t="s">
-        <v>244</v>
+        <v>273</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="C33" s="2"/>
       <c r="F33" t="s">
@@ -3331,10 +3345,10 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="C34" s="2"/>
       <c r="F34" t="s">
@@ -3346,10 +3360,10 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C35" s="2"/>
       <c r="F35" t="s">
@@ -3361,10 +3375,10 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="C36" s="2"/>
       <c r="F36" t="s">
@@ -3376,10 +3390,10 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="C37" s="2"/>
       <c r="F37" t="s">
@@ -3391,163 +3405,171 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2" t="s">
-        <v>249</v>
+        <v>325</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>90</v>
+        <v>163</v>
       </c>
       <c r="C38" s="2"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2" t="s">
-        <v>250</v>
+        <v>326</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>91</v>
+        <v>164</v>
       </c>
       <c r="C39" s="2"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2" t="s">
-        <v>251</v>
+        <v>333</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>92</v>
+        <v>171</v>
       </c>
       <c r="C40" s="2"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2" t="s">
-        <v>252</v>
+        <v>298</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>93</v>
+        <v>138</v>
       </c>
       <c r="C41" s="2"/>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="2" t="s">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="C42" s="2"/>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="2" t="s">
-        <v>254</v>
+        <v>378</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="C43" s="2"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="2" t="s">
-        <v>255</v>
+        <v>342</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C44" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2" t="s">
-        <v>256</v>
+        <v>339</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C45" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="2" t="s">
-        <v>257</v>
+        <v>340</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C46" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="2" t="s">
-        <v>258</v>
+        <v>341</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C47" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="2" t="s">
-        <v>259</v>
+        <v>352</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>100</v>
+        <v>193</v>
       </c>
       <c r="C48" s="2"/>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2" t="s">
-        <v>260</v>
+        <v>336</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>101</v>
+        <v>174</v>
       </c>
       <c r="C49" s="2"/>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="C50" s="2"/>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="C51" s="2"/>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2" t="s">
-        <v>263</v>
+        <v>302</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="C52" s="2"/>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2" t="s">
-        <v>264</v>
+        <v>304</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>105</v>
+        <v>142</v>
       </c>
       <c r="C53" s="2"/>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2" t="s">
-        <v>265</v>
+        <v>361</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>106</v>
+        <v>202</v>
       </c>
       <c r="C54" s="2"/>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2" t="s">
-        <v>266</v>
+        <v>218</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="C55" s="2"/>
     </row>
@@ -3562,28 +3584,28 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C57" s="2"/>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C58" s="2"/>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C59" s="2"/>
     </row>
@@ -3598,469 +3620,469 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="C61" s="2"/>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="2" t="s">
-        <v>273</v>
+        <v>344</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>114</v>
+        <v>185</v>
       </c>
       <c r="C62" s="2"/>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="2" t="s">
-        <v>274</v>
+        <v>376</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>115</v>
+        <v>216</v>
       </c>
       <c r="C63" s="2"/>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="2" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="C64" s="2"/>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="2" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="C65" s="2"/>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="2" t="s">
-        <v>277</v>
+        <v>335</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>118</v>
+        <v>173</v>
       </c>
       <c r="C66" s="2"/>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="2" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C67" s="2"/>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="2" t="s">
-        <v>279</v>
+        <v>221</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>120</v>
+        <v>62</v>
       </c>
       <c r="C68" s="2"/>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="2" t="s">
-        <v>280</v>
+        <v>222</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>121</v>
+        <v>63</v>
       </c>
       <c r="C69" s="2"/>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="2" t="s">
-        <v>281</v>
+        <v>235</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>122</v>
+        <v>76</v>
       </c>
       <c r="C70" s="2"/>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="2" t="s">
-        <v>282</v>
+        <v>234</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="C71" s="2"/>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="2" t="s">
-        <v>283</v>
+        <v>227</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c r="C72" s="2"/>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="2" t="s">
-        <v>284</v>
+        <v>226</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>125</v>
+        <v>67</v>
       </c>
       <c r="C73" s="2"/>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="2" t="s">
-        <v>285</v>
+        <v>228</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="C74" s="2"/>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="2" t="s">
-        <v>286</v>
+        <v>236</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="C75" s="2"/>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="2" t="s">
-        <v>287</v>
+        <v>233</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="C76" s="2"/>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="2" t="s">
-        <v>288</v>
+        <v>231</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="C77" s="2"/>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="2" t="s">
-        <v>289</v>
+        <v>230</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="C78" s="2"/>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="2" t="s">
-        <v>290</v>
+        <v>225</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>130</v>
+        <v>66</v>
       </c>
       <c r="C79" s="2"/>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="2" t="s">
-        <v>291</v>
+        <v>224</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>131</v>
+        <v>65</v>
       </c>
       <c r="C80" s="2"/>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="2" t="s">
-        <v>292</v>
+        <v>223</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>132</v>
+        <v>64</v>
       </c>
       <c r="C81" s="2"/>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="2" t="s">
-        <v>293</v>
+        <v>238</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="C82" s="2"/>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="2" t="s">
-        <v>294</v>
+        <v>237</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="C83" s="2"/>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="2" t="s">
-        <v>295</v>
+        <v>239</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="C84" s="2"/>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="2" t="s">
-        <v>296</v>
+        <v>241</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="C85" s="2"/>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="2" t="s">
-        <v>297</v>
+        <v>242</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>137</v>
+        <v>83</v>
       </c>
       <c r="C86" s="2"/>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="2" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C87" s="2"/>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="2" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="C88" s="2"/>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="2" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>2</v>
+        <v>175</v>
       </c>
       <c r="C89" s="2"/>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="2" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C90" s="2"/>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="2" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="C91" s="2"/>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>141</v>
+        <v>1</v>
       </c>
       <c r="C92" s="2"/>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="2" t="s">
-        <v>304</v>
+        <v>247</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>142</v>
+        <v>88</v>
       </c>
       <c r="C93" s="2"/>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="2" t="s">
-        <v>305</v>
+        <v>246</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>143</v>
+        <v>87</v>
       </c>
       <c r="C94" s="2"/>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="2" t="s">
-        <v>306</v>
+        <v>356</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>144</v>
+        <v>197</v>
       </c>
       <c r="C95" s="2"/>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="2" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>145</v>
+        <v>195</v>
       </c>
       <c r="C96" s="2"/>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="2" t="s">
-        <v>308</v>
+        <v>353</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>146</v>
+        <v>194</v>
       </c>
       <c r="C97" s="2"/>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="2" t="s">
-        <v>309</v>
+        <v>355</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>147</v>
+        <v>196</v>
       </c>
       <c r="C98" s="2"/>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="2" t="s">
-        <v>310</v>
+        <v>244</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>148</v>
+        <v>85</v>
       </c>
       <c r="C99" s="2"/>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="2" t="s">
-        <v>311</v>
+        <v>330</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="C100" s="2"/>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="2" t="s">
-        <v>312</v>
+        <v>243</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>150</v>
+        <v>84</v>
       </c>
       <c r="C101" s="2"/>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="2" t="s">
-        <v>313</v>
+        <v>250</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>151</v>
+        <v>91</v>
       </c>
       <c r="C102" s="2"/>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="2" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="C103" s="2"/>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="2" t="s">
-        <v>315</v>
+        <v>240</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>153</v>
+        <v>81</v>
       </c>
       <c r="C104" s="2"/>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="2" t="s">
-        <v>316</v>
+        <v>232</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>154</v>
+        <v>73</v>
       </c>
       <c r="C105" s="2"/>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="2" t="s">
-        <v>317</v>
+        <v>249</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>155</v>
+        <v>90</v>
       </c>
       <c r="C106" s="2"/>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="2" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="C107" s="2"/>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="2" t="s">
-        <v>319</v>
+        <v>220</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>157</v>
+        <v>61</v>
       </c>
       <c r="C108" s="2"/>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="2" t="s">
-        <v>320</v>
+        <v>248</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>158</v>
+        <v>89</v>
       </c>
       <c r="C109" s="2"/>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="2" t="s">
-        <v>321</v>
+        <v>229</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>159</v>
+        <v>70</v>
       </c>
       <c r="C110" s="2"/>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="2" t="s">
-        <v>322</v>
+        <v>373</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>160</v>
+        <v>214</v>
       </c>
       <c r="C111" s="2"/>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="2" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C112" s="2"/>
     </row>
@@ -4075,465 +4097,457 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="2" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C114" s="2"/>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="2" t="s">
-        <v>326</v>
+        <v>282</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>164</v>
+        <v>123</v>
       </c>
       <c r="C115" s="2"/>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="2" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C116" s="2"/>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="2" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="C117" s="2"/>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="2" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="C118" s="2"/>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="2" t="s">
-        <v>330</v>
+        <v>288</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>168</v>
+        <v>128</v>
       </c>
       <c r="C119" s="2"/>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="2" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>169</v>
+        <v>198</v>
       </c>
       <c r="C120" s="2"/>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="2" t="s">
-        <v>332</v>
+        <v>274</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>170</v>
+        <v>115</v>
       </c>
       <c r="C121" s="2"/>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="2" t="s">
-        <v>333</v>
+        <v>358</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>171</v>
+        <v>199</v>
       </c>
       <c r="C122" s="2"/>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="2" t="s">
-        <v>334</v>
+        <v>372</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>172</v>
+        <v>213</v>
       </c>
       <c r="C123" s="2"/>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="2" t="s">
-        <v>335</v>
+        <v>306</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="C124" s="2"/>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="2" t="s">
-        <v>336</v>
+        <v>364</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>174</v>
+        <v>205</v>
       </c>
       <c r="C125" s="2"/>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="2" t="s">
-        <v>337</v>
+        <v>363</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="C126" s="2"/>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="2" t="s">
-        <v>338</v>
+        <v>312</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>176</v>
+        <v>150</v>
       </c>
       <c r="C127" s="2"/>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="2" t="s">
-        <v>339</v>
+        <v>305</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>178</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="C128" s="2"/>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="2" t="s">
-        <v>340</v>
+        <v>281</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>179</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="C129" s="2"/>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="2" t="s">
-        <v>341</v>
+        <v>319</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>181</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="C130" s="2"/>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="2" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>183</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="C131" s="2"/>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="2" t="s">
-        <v>343</v>
+        <v>307</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
       <c r="C132" s="2"/>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="2" t="s">
-        <v>344</v>
+        <v>320</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="C133" s="2"/>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="2" t="s">
-        <v>345</v>
+        <v>318</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="C134" s="2"/>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="2" t="s">
-        <v>346</v>
+        <v>369</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="C135" s="2"/>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="2" t="s">
-        <v>347</v>
+        <v>367</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="C136" s="2"/>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="2" t="s">
-        <v>348</v>
+        <v>310</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>189</v>
+        <v>148</v>
       </c>
       <c r="C137" s="2"/>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="2" t="s">
-        <v>349</v>
+        <v>303</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>190</v>
+        <v>141</v>
       </c>
       <c r="C138" s="2"/>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="2" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>191</v>
+        <v>151</v>
       </c>
       <c r="C139" s="2"/>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="2" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="C140" s="2"/>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="2" t="s">
-        <v>352</v>
+        <v>322</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>193</v>
+        <v>160</v>
       </c>
       <c r="C141" s="2"/>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="2" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="C142" s="2"/>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="2" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="C143" s="2"/>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="2" t="s">
-        <v>355</v>
+        <v>301</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>196</v>
+        <v>139</v>
       </c>
       <c r="C144" s="2"/>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="2" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C145" s="2"/>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="2" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="C146" s="2"/>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="2" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="C147" s="2"/>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="2" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="C148" s="2"/>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="2" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="C149" s="2"/>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="2" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="C150" s="2"/>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="2" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="C151" s="2"/>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="2" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="C152" s="2"/>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="2" t="s">
-        <v>364</v>
+        <v>338</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="C153" s="2"/>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="2" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="C154" s="2"/>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="2" t="s">
-        <v>366</v>
+        <v>300</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>207</v>
+        <v>2</v>
       </c>
       <c r="C155" s="2"/>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="2" t="s">
-        <v>367</v>
+        <v>287</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>208</v>
+        <v>0</v>
       </c>
       <c r="C156" s="2"/>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="2" t="s">
-        <v>368</v>
+        <v>245</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>209</v>
+        <v>86</v>
       </c>
       <c r="C157" s="2"/>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="2" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>210</v>
+        <v>4</v>
       </c>
       <c r="C158" s="2"/>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="2" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C159" s="2"/>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="2" t="s">
-        <v>371</v>
+        <v>285</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>212</v>
+        <v>126</v>
       </c>
       <c r="C160" s="2"/>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="2" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="C161" s="2"/>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="2" t="s">
-        <v>373</v>
+        <v>289</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>214</v>
+        <v>129</v>
       </c>
       <c r="C162" s="2"/>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="2" t="s">
-        <v>374</v>
+        <v>286</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>215</v>
+        <v>127</v>
       </c>
       <c r="C163" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A2:C163">
-    <sortCondition ref="A2:A163" customList="0,1"/>
+    <sortCondition ref="B2:B163"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5192,4 +5206,34 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C3:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="3" spans="3:3">
+      <c r="C3" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3">
+      <c r="C4" s="5" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3">
+      <c r="C5" s="5" t="s">
+        <v>552</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>